--- a/MATRIZ LC.xlsx
+++ b/MATRIZ LC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelsuesca/Documents/AIESEC/IGV/VP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A31E556-24B0-5947-9F41-4676180D8D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269505A7-4940-0C45-BC11-2D0092E3E1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{1A45B9E0-0C58-B546-9129-BB8314CBA03A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="4" xr2:uid="{1A45B9E0-0C58-B546-9129-BB8314CBA03A}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="134">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -377,15 +377,6 @@
     <t>A3</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>B2B</t>
   </si>
   <si>
@@ -447,6 +438,12 @@
   </si>
   <si>
     <t>9PM</t>
+  </si>
+  <si>
+    <t>PDY</t>
+  </si>
+  <si>
+    <t>OGX</t>
   </si>
 </sst>
 </file>
@@ -597,13 +594,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{019EBB36-4040-DF49-80D0-620D684B813B}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowCount="1">
-  <autoFilter ref="A1:H71" xr:uid="{019EBB36-4040-DF49-80D0-620D684B813B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="OGV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H71" xr:uid="{019EBB36-4040-DF49-80D0-620D684B813B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5B496D67-2527-124E-AD6B-C7A68FF123F5}" name="NOMBRE"/>
     <tableColumn id="2" xr3:uid="{B8B0E43F-366C-AE49-9B55-75E6FED59A6F}" name="AREA"/>
@@ -919,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A93F74-F960-EF4F-9C40-94D8B2141172}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -957,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -984,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1011,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -1079,11 +1070,11 @@
         <f t="shared" si="0"/>
         <v>OGX</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>111</v>
+      <c r="F6" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1092,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -1106,11 +1097,11 @@
         <f t="shared" si="0"/>
         <v>PwC</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>117</v>
+      <c r="F7" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1119,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1133,11 +1124,11 @@
         <f t="shared" si="0"/>
         <v>OGX</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>112</v>
+      <c r="F8" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1146,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -1160,11 +1151,11 @@
         <f t="shared" si="0"/>
         <v>OGX</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>112</v>
+      <c r="F9" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1173,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -1187,7 +1178,7 @@
         <f t="shared" si="0"/>
         <v>PwC</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1200,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -1214,11 +1205,11 @@
         <f>IF(OR(B11="IGV", B11="IGTa"), "ICX", IF(OR(B11="OGV", B11="OGTa", B11="B2C"), "OGX", "PwC"))</f>
         <v>PwC</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>117</v>
+      <c r="F11" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1227,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1241,11 +1232,11 @@
         <f t="shared" si="0"/>
         <v>PwC</v>
       </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>115</v>
+      <c r="E12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1254,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1295,10 +1286,10 @@
         <f t="shared" si="0"/>
         <v>ICX</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G14">
@@ -1308,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1317,7 @@
         <v>67</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1335,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1349,11 +1340,11 @@
         <f t="shared" si="0"/>
         <v>ICX</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
+      <c r="F16" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1443,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1457,11 +1448,11 @@
         <f t="shared" si="0"/>
         <v>ICX</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>114</v>
+      <c r="F20" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1470,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1524,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -1551,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1595,8 +1586,8 @@
       <c r="E25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>69</v>
+      <c r="F25" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1605,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1676,7 +1667,7 @@
       <c r="E28" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G28">
@@ -1686,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1700,11 +1691,11 @@
         <f t="shared" si="0"/>
         <v>PwC</v>
       </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>117</v>
+      <c r="E29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1713,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1727,10 +1718,10 @@
         <f t="shared" si="0"/>
         <v>ICX</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G30">
@@ -1740,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1754,10 +1745,10 @@
         <f t="shared" si="0"/>
         <v>PwC</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="11" t="s">
         <v>84</v>
       </c>
       <c r="G31">
@@ -1767,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1781,10 +1772,10 @@
         <f t="shared" si="0"/>
         <v>OGX</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G32">
@@ -1794,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -1808,11 +1799,11 @@
         <f t="shared" si="0"/>
         <v>OGX</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>113</v>
+      <c r="F33" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1821,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1835,11 +1826,11 @@
         <f t="shared" ref="D34:D65" si="1">IF(OR(B34="IGV", B34="IGTa"), "ICX", IF(OR(B34="OGV", B34="OGTa", B34="B2C"), "OGX", "PwC"))</f>
         <v>OGX</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>112</v>
+      <c r="F34" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1848,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1862,11 +1853,11 @@
         <f t="shared" si="1"/>
         <v>OGX</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>112</v>
+      <c r="F35" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1875,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1889,10 +1880,10 @@
         <f t="shared" si="1"/>
         <v>ICX</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G36">
@@ -1916,10 +1907,10 @@
         <f t="shared" si="1"/>
         <v>OGX</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G37">
@@ -1929,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1943,11 +1934,11 @@
         <f t="shared" si="1"/>
         <v>OGX</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>113</v>
+      <c r="F38" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1956,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -1970,11 +1961,11 @@
         <f t="shared" si="1"/>
         <v>PwC</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>116</v>
+      <c r="E39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1983,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1997,10 +1988,10 @@
         <f t="shared" si="1"/>
         <v>ICX</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G40">
@@ -2010,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2024,11 +2015,11 @@
         <f t="shared" si="1"/>
         <v>OGX</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>113</v>
+      <c r="F41" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2037,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2051,10 +2042,10 @@
         <f t="shared" si="1"/>
         <v>PwC</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G42">
@@ -2064,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2078,7 +2069,7 @@
         <f t="shared" si="1"/>
         <v>PwC</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F43" s="11" t="s">
@@ -2091,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2105,11 +2096,11 @@
         <f t="shared" si="1"/>
         <v>OGX</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>113</v>
+      <c r="F44" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2118,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2132,10 +2123,10 @@
         <f t="shared" si="1"/>
         <v>ICX</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G45">
@@ -2145,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2159,10 +2150,10 @@
         <f t="shared" si="1"/>
         <v>OGX</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G46">
@@ -2172,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2226,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2253,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2280,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2307,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2388,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2405,8 +2396,8 @@
       <c r="E55" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>70</v>
+      <c r="F55" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2415,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -2432,7 +2423,7 @@
       <c r="E56" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G56">
@@ -2469,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2496,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -2550,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -2567,7 +2558,7 @@
       <c r="E61" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G61">
@@ -2577,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2594,7 +2585,7 @@
       <c r="E62" t="s">
         <v>68</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G62">
@@ -2604,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -2621,8 +2612,8 @@
       <c r="E63" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>116</v>
+      <c r="F63" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2631,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -2648,7 +2639,7 @@
       <c r="E64" t="s">
         <v>68</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G64">
@@ -2658,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2675,8 +2666,8 @@
       <c r="E65" t="s">
         <v>68</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>114</v>
+      <c r="F65" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2685,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -2702,8 +2693,8 @@
       <c r="E66" t="s">
         <v>68</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>70</v>
+      <c r="F66" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2712,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -2729,8 +2720,8 @@
       <c r="E67" t="s">
         <v>68</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>114</v>
+      <c r="F67" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2739,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2756,7 +2747,7 @@
       <c r="E68" t="s">
         <v>67</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G68">
@@ -2766,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2783,7 +2774,7 @@
       <c r="E69" t="s">
         <v>68</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="11" t="s">
         <v>88</v>
       </c>
       <c r="G69">
@@ -2793,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -2810,8 +2801,8 @@
       <c r="E70" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>115</v>
+      <c r="F70" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2889,52 +2880,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="R1" s="2"/>
     </row>
@@ -6614,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59859E5C-C6E2-024B-8359-B813291EDDCA}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6628,52 +6619,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="R1" s="2"/>
     </row>
@@ -9852,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="5">
         <v>0</v>
@@ -9905,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="5">
         <v>0</v>
@@ -9958,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="5">
         <v>0</v>
@@ -10064,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="N66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="5">
         <v>0</v>
@@ -10117,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="5">
         <v>0</v>
@@ -10170,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="5">
         <v>0</v>
@@ -10276,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="5">
         <v>0</v>
@@ -10329,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="N71" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="5">
         <v>0</v>
@@ -10364,52 +10355,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="R1" s="2"/>
     </row>
@@ -14088,8 +14079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E545BC-F39E-844D-83B1-D942F8ED4A66}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" activeCellId="1" sqref="J10 I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14102,52 +14093,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="R1" s="2"/>
     </row>
@@ -14165,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -14218,7 +14209,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -14271,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -14324,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -14377,7 +14368,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -14483,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -14536,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -14589,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -14642,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -14695,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -14801,7 +14792,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="5">
         <v>0</v>
@@ -17826,8 +17817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1D4FD3-6237-D847-8979-007A542D05AA}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17841,52 +17832,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -19882,7 +19873,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -19933,7 +19924,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="5">
         <v>0</v>
@@ -19982,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="5">
         <v>0</v>
@@ -20031,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
@@ -20080,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
@@ -20178,7 +20169,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="5">
         <v>1</v>
@@ -20227,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="5">
         <v>0</v>
@@ -20325,7 +20316,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="5">
         <v>0</v>
@@ -20374,7 +20365,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="5">
         <v>0</v>
@@ -20423,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="5">
         <v>0</v>
@@ -20480,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="5">
         <v>0</v>
@@ -20533,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -20586,7 +20577,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
@@ -20692,7 +20683,7 @@
         <v>1</v>
       </c>
       <c r="M55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="5">
         <v>0</v>
@@ -20745,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="5">
         <v>0</v>
@@ -20798,7 +20789,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="5">
         <v>1</v>
@@ -20851,7 +20842,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="5">
         <v>0</v>
@@ -20904,7 +20895,7 @@
         <v>1</v>
       </c>
       <c r="M59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="5">
         <v>0</v>
@@ -20957,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="5">
         <v>0</v>
@@ -21578,52 +21569,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="R1" s="2"/>
     </row>

--- a/MATRIZ LC.xlsx
+++ b/MATRIZ LC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelsuesca/Documents/AIESEC/IGV/VP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269505A7-4940-0C45-BC11-2D0092E3E1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2537350C-95B9-144A-9852-C1B99FF99469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="4" xr2:uid="{1A45B9E0-0C58-B546-9129-BB8314CBA03A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{1A45B9E0-0C58-B546-9129-BB8314CBA03A}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A93F74-F960-EF4F-9C40-94D8B2141172}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14079,7 +14079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E545BC-F39E-844D-83B1-D942F8ED4A66}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" activeCellId="1" sqref="J10 I13"/>
     </sheetView>
   </sheetViews>
@@ -17817,7 +17817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1D4FD3-6237-D847-8979-007A542D05AA}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
